--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gayatri\OneDrive\Desktop\Capgemini_Training\Java\Hibernate_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6573596E-2F62-495B-B326-3DCCBFAE0B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5423562C-BBC4-4AD6-BA80-6017E25DB877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75F62454-D007-4A9D-92E1-8392ED6F8E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Result</t>
   </si>
@@ -60,9 +61,6 @@
     <t>CardNo less than 16</t>
   </si>
   <si>
-    <t>CardNo greater than 17</t>
-  </si>
-  <si>
     <t>CardNo contains characters</t>
   </si>
   <si>
@@ -78,9 +76,6 @@
     <t>CardNo length can not be less than 16</t>
   </si>
   <si>
-    <t>CardNo length can not be greater than 17</t>
-  </si>
-  <si>
     <t>CardNo can not be characters</t>
   </si>
   <si>
@@ -120,12 +115,6 @@
     <t>Entered Card Pin should be matched with valid Card Pin</t>
   </si>
   <si>
-    <t>Card valid after Expiration Date</t>
-  </si>
-  <si>
-    <t>Card can not be accessed after Expiration Date</t>
-  </si>
-  <si>
     <t>Section: WithDraw</t>
   </si>
   <si>
@@ -141,12 +130,6 @@
     <t>WithDraw amount should be multiple of 100</t>
   </si>
   <si>
-    <t>WithDraw amout contains Negative Number</t>
-  </si>
-  <si>
-    <t>Withdraw amount shold be Positive</t>
-  </si>
-  <si>
     <t>Section: Deposit</t>
   </si>
   <si>
@@ -159,9 +142,6 @@
     <t>Deposit amount should be multiple of 100</t>
   </si>
   <si>
-    <t>Deposit amount shold be Positive</t>
-  </si>
-  <si>
     <t>Group 4  - PDEA</t>
   </si>
   <si>
@@ -192,19 +172,49 @@
     <t>Section: Mini-Statement</t>
   </si>
   <si>
-    <t>No transactions still Transactions found</t>
-  </si>
-  <si>
     <t>No Transaction found</t>
   </si>
   <si>
     <t>Section: Change Pin</t>
   </si>
   <si>
-    <t>New pin same as prev pin</t>
-  </si>
-  <si>
-    <t>New pin must be different from old pin</t>
+    <t>Section: Transaction</t>
+  </si>
+  <si>
+    <t>CardNo greater than 16</t>
+  </si>
+  <si>
+    <t>CardNo length can not be greater than 16</t>
+  </si>
+  <si>
+    <t>Deposit amount should be Positive</t>
+  </si>
+  <si>
+    <t>Withdraw amount should be Positive</t>
+  </si>
+  <si>
+    <t>WithDraw amount contains Negative Number</t>
+  </si>
+  <si>
+    <t>No transaction history still fetching mini-statement</t>
+  </si>
+  <si>
+    <t>Transaction amount greater than 10,000</t>
+  </si>
+  <si>
+    <t>Per transaction limit should not be greater than 10,000</t>
+  </si>
+  <si>
+    <t>New pin same as previous pin</t>
+  </si>
+  <si>
+    <t>Constraint on Email</t>
+  </si>
+  <si>
+    <t>Back-End Validation</t>
+  </si>
+  <si>
+    <t>New pin must be different from previous pin</t>
   </si>
 </sst>
 </file>
@@ -220,12 +230,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,14 +271,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,26 +621,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78598CBC-3CAF-4742-80B4-66F401987CC2}">
-  <dimension ref="C1:I44"/>
+  <dimension ref="B1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="110" zoomScaleSheetLayoutView="127" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
     <col min="5" max="5" width="47.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -653,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
@@ -661,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
@@ -672,10 +693,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
@@ -683,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
@@ -694,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
@@ -705,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
@@ -716,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
@@ -731,8 +752,8 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="3:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
@@ -750,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -761,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -772,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -783,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -794,10 +815,10 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
@@ -805,229 +826,298 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="22" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="1">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="3:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="3:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>0</v>
+      <c r="E24" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="1">
-        <v>4</v>
+      <c r="C28" s="2">
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>0</v>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="1">
-        <v>3</v>
+      <c r="C35" s="2">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="2">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="E47" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C38:E38"/>
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C37:E37"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F62629C-5C53-4762-BF09-0071FAF756BA}">
+  <dimension ref="E3:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="5:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gayatri\OneDrive\Desktop\Capgemini_Training\Java\Hibernate_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5423562C-BBC4-4AD6-BA80-6017E25DB877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A6DE1-E81A-4815-97B2-E26DEB62B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75F62454-D007-4A9D-92E1-8392ED6F8E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{75F62454-D007-4A9D-92E1-8392ED6F8E79}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Front-End" sheetId="1" r:id="rId1"/>
+    <sheet name="Back- End" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Result</t>
   </si>
@@ -208,13 +208,37 @@
     <t>New pin same as previous pin</t>
   </si>
   <si>
-    <t>Constraint on Email</t>
-  </si>
-  <si>
-    <t>Back-End Validation</t>
-  </si>
-  <si>
     <t>New pin must be different from previous pin</t>
+  </si>
+  <si>
+    <t>Section: Customer Entity</t>
+  </si>
+  <si>
+    <t>Customer Phone no. must contain digits and its only 10 digits</t>
+  </si>
+  <si>
+    <t>Customer email contains characters, @ and digits with proper format</t>
+  </si>
+  <si>
+    <t>Contains other than customer email format</t>
+  </si>
+  <si>
+    <t>Contains other than customer phone no. format</t>
+  </si>
+  <si>
+    <t>Contains other than customer adhaar no. format</t>
+  </si>
+  <si>
+    <t>Customer Adhaar no. must contain digits and its only 12 digits with proper format</t>
+  </si>
+  <si>
+    <t>Section: Card Entity</t>
+  </si>
+  <si>
+    <t>Card Cvv must cotain three digits only</t>
+  </si>
+  <si>
+    <t>Card Cvv not contain three digits</t>
   </si>
 </sst>
 </file>
@@ -273,14 +297,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -621,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78598CBC-3CAF-4742-80B4-66F401987CC2}">
-  <dimension ref="B1:I51"/>
+  <dimension ref="C1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="110" zoomScaleSheetLayoutView="127" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="B1" zoomScale="109" zoomScaleNormal="110" zoomScaleSheetLayoutView="127" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,11 +661,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -649,11 +673,11 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="3:9" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
@@ -747,13 +771,13 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="3:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
@@ -833,11 +857,11 @@
       </c>
     </row>
     <row r="22" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="3:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
@@ -906,11 +930,11 @@
       </c>
     </row>
     <row r="30" spans="3:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
@@ -971,11 +995,11 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="3:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
@@ -996,15 +1020,15 @@
         <v>59</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
@@ -1029,11 +1053,11 @@
       </c>
     </row>
     <row r="45" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
@@ -1057,31 +1081,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1090,34 +1109,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F62629C-5C53-4762-BF09-0071FAF756BA}">
-  <dimension ref="E3:H4"/>
+  <dimension ref="D3:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="41.77734375" customWidth="1"/>
+    <col min="7" max="7" width="69.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6" t="s">
+    <row r="3" spans="4:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="4:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
